--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>451507.4448451854</v>
+        <v>449068.971745439</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>47.02911405590783</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>313.5303479469684</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>18.60531255747991</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>110.074134202579</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>27.91584885415289</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +871,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>260.9640446500377</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>347.4169710850241</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>54.96679667527818</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>12.49196499094369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>15.07379336750844</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>382.4827461567857</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>22.86125478512713</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>148.8557665615976</v>
+        <v>177.3744508986161</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.88641949135589</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.37250637580689</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>94.64226186542876</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,10 +1895,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F19" t="n">
-        <v>68.17501931583779</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>208.2640550058598</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146449</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520987</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456766</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428033</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.594095449514112</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>133.9838498346386</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1514.348043559524</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1514.348043559524</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1156.082344952774</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>770.2940923545295</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>722.7899367425015</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3306.812576601615</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3100.834828985837</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2847.304352259674</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2736.118358115654</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2736.118358115654</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>2736.118358115654</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>707.3324606755107</v>
+        <v>1855.256201414567</v>
       </c>
       <c r="C4" t="n">
-        <v>707.3324606755107</v>
+        <v>1855.256201414567</v>
       </c>
       <c r="D4" t="n">
-        <v>557.2158212631749</v>
+        <v>1855.256201414567</v>
       </c>
       <c r="E4" t="n">
-        <v>409.3027276807818</v>
+        <v>1855.256201414567</v>
       </c>
       <c r="F4" t="n">
-        <v>262.4127801828714</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="G4" t="n">
-        <v>94.70994355759038</v>
+        <v>1708.366253916657</v>
       </c>
       <c r="H4" t="n">
-        <v>94.70994355759038</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>2558.722819662002</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610489</v>
+        <v>2304.038331456115</v>
       </c>
       <c r="W4" t="n">
-        <v>935.322011573528</v>
+        <v>2304.038331456115</v>
       </c>
       <c r="X4" t="n">
-        <v>707.3324606755107</v>
+        <v>2076.048780558097</v>
       </c>
       <c r="Y4" t="n">
-        <v>707.3324606755107</v>
+        <v>1855.256201414567</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2268.308520734406</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="C5" t="n">
-        <v>1899.346003793994</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="D5" t="n">
-        <v>1541.080305187244</v>
+        <v>1258.388789815515</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>872.6005372172704</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>461.6146324276628</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4568,16 +4568,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734406</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4668,28 +4668,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>470.5862204338721</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="C7" t="n">
-        <v>470.5862204338721</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
         <v>310.0549803959803</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1912.068494181918</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1690.301878751444</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1401.199011877088</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>1146.514523671201</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621292</v>
+        <v>857.0973536342402</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641118</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="Y7" t="n">
-        <v>652.2346852641118</v>
+        <v>629.1078027362229</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.63871203243</v>
+        <v>1664.678443125552</v>
       </c>
       <c r="C8" t="n">
-        <v>1255.676195092019</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D8" t="n">
-        <v>897.4104964852681</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="E8" t="n">
-        <v>511.6222438870239</v>
+        <v>909.9276735868957</v>
       </c>
       <c r="F8" t="n">
-        <v>100.6363390974163</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>89.60429298281689</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1687.104730682791</v>
+        <v>1748.128436069688</v>
       </c>
       <c r="T10" t="n">
-        <v>1465.338115252317</v>
+        <v>1526.361820639214</v>
       </c>
       <c r="U10" t="n">
-        <v>1176.23524837796</v>
+        <v>1526.361820639214</v>
       </c>
       <c r="V10" t="n">
-        <v>1176.23524837796</v>
+        <v>1271.677332433327</v>
       </c>
       <c r="W10" t="n">
-        <v>1176.23524837796</v>
+        <v>982.2601623963666</v>
       </c>
       <c r="X10" t="n">
-        <v>1176.23524837796</v>
+        <v>754.2706114983492</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="11">
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2410.714175003133</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5306,22 +5306,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>336.3048548543961</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>189.4149073564858</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.329899359456</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.5373202159259</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,19 +5519,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5595,25 +5595,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>659.9487421954783</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>491.0125592675714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>491.0125592675714</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1290.379337067265</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1062.389786169248</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>841.597207025718</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290592</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925746</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>344.917417812163</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D28" t="n">
-        <v>344.917417812163</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="E28" t="n">
-        <v>344.917417812163</v>
+        <v>365.9405071576767</v>
       </c>
       <c r="F28" t="n">
-        <v>344.917417812163</v>
+        <v>219.0505596597664</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270429</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038327</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910807</v>
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6482,22 +6482,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6552,7 +6552,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,10 +6707,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7254,16 +7254,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2311.62586152507</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2092.024396548011</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1802.949169892209</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1548.264681686322</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1258.847511649361</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1030.857960751344</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>810.0653816078141</v>
       </c>
     </row>
     <row r="41">
@@ -7494,13 +7494,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7795,10 +7795,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>359.8469316858036</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>217.6781242675559</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>25.24779355557519</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>30.48882721876579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.4594738061304</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>45.65245098079512</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="F19" t="n">
-        <v>77.24602870709346</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>78.25894333073123</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194615</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>41.54258064659228</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194356</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>147.0213775686983</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>42.31058222398326</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>47.04243616700597</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25837,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631198</v>
+        <v>354580.09686312</v>
       </c>
       <c r="C2" t="n">
+        <v>389994.8406855344</v>
+      </c>
+      <c r="D2" t="n">
         <v>389994.8406855343</v>
       </c>
-      <c r="D2" t="n">
-        <v>389994.8406855346</v>
-      </c>
       <c r="E2" t="n">
-        <v>383394.6348527531</v>
+        <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="H2" t="n">
         <v>383394.634852753</v>
@@ -26335,7 +26335,7 @@
         <v>383394.6348527529</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
         <v>383394.634852753</v>
@@ -26344,16 +26344,16 @@
         <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="O2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49019.07124050435</v>
+        <v>49019.07124050437</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316945</v>
@@ -26442,19 +26442,19 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1131117.660666371</v>
+        <v>-1131304.054054909</v>
       </c>
       <c r="C6" t="n">
-        <v>190486.9451709719</v>
+        <v>190486.9451709717</v>
       </c>
       <c r="D6" t="n">
         <v>190486.9451709717</v>
       </c>
       <c r="E6" t="n">
-        <v>-55527.27696032733</v>
+        <v>-55562.01488576332</v>
       </c>
       <c r="F6" t="n">
-        <v>269885.1848470278</v>
+        <v>269850.4469215921</v>
       </c>
       <c r="G6" t="n">
-        <v>269885.1848470278</v>
+        <v>269850.4469215919</v>
       </c>
       <c r="H6" t="n">
-        <v>269885.1848470277</v>
+        <v>269850.4469215921</v>
       </c>
       <c r="I6" t="n">
-        <v>269885.1848470276</v>
+        <v>269850.4469215919</v>
       </c>
       <c r="J6" t="n">
-        <v>52353.98244975008</v>
+        <v>52319.24452431468</v>
       </c>
       <c r="K6" t="n">
-        <v>269885.1848470278</v>
+        <v>269850.446921592</v>
       </c>
       <c r="L6" t="n">
-        <v>269885.1848470278</v>
+        <v>269850.446921592</v>
       </c>
       <c r="M6" t="n">
-        <v>184830.1569115159</v>
+        <v>184795.4189860801</v>
       </c>
       <c r="N6" t="n">
-        <v>269885.1848470277</v>
+        <v>269850.4469215919</v>
       </c>
       <c r="O6" t="n">
-        <v>269885.1848470278</v>
+        <v>269850.4469215921</v>
       </c>
       <c r="P6" t="n">
-        <v>269885.1848470277</v>
+        <v>269850.4469215919</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>97.391377706485</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>90.58244923069591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>68.43657155568521</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>34.51339898723768</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>355.9549289781753</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>136.1235080272687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>174.6952319639335</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>24.39329958492573</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>271.7465096021933</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>40.9132587698443</v>
+        <v>12.39457443282581</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29262,7 +29262,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29284,10 +29284,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,28 +31841,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,28 +32315,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096333</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
